--- a/MainTop/35.12.2025 имена/35.12.2025 имена.xlsx
+++ b/MainTop/35.12.2025 имена/35.12.2025 имена.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\35.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\35.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB543C22-F254-4187-B894-AE8B0DC230CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2BD869-0200-4EE6-8221-BDC67C7E88CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,19 +33,19 @@
     <t>Штрихкод</t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Лев</t>
-  </si>
-  <si>
-    <t>Мирослава</t>
-  </si>
-  <si>
-    <t>Влад</t>
+    <t>Num_Copies</t>
+  </si>
+  <si>
+    <t>Термобирки Алексей</t>
+  </si>
+  <si>
+    <t>Термобирки Лев</t>
+  </si>
+  <si>
+    <t>Термобирки Мирослава</t>
+  </si>
+  <si>
+    <t>Термобирки Влад</t>
   </si>
 </sst>
 </file>
@@ -366,12 +366,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
